--- a/biology/Médecine/Pharyngite_streptococcique/Pharyngite_streptococcique.xlsx
+++ b/biology/Médecine/Pharyngite_streptococcique/Pharyngite_streptococcique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pharyngite streptococcique (ou angine à streptocoques) est une infection causée par le streptocoque du groupe A généralement aiguë et concernant l'arrière-gorge dans sa partie supérieure (pharynx). De par le risque d'évolution péjorative sévère (rhumatisme articulaire aigu[1], glomérulonéphrite, cardiopathies voire syndromes neurologiques[2]), sa prise en charge se fait systématiquement par antibiothérapie[2],[3].
-Dans sa forme chronique, elle se loge également dans les amygdales (on parle de tonsillite), obligeant parfois à en faire l'ablation chirurgicale[3] (tonsillectomie).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pharyngite streptococcique (ou angine à streptocoques) est une infection causée par le streptocoque du groupe A généralement aiguë et concernant l'arrière-gorge dans sa partie supérieure (pharynx). De par le risque d'évolution péjorative sévère (rhumatisme articulaire aigu, glomérulonéphrite, cardiopathies voire syndromes neurologiques), sa prise en charge se fait systématiquement par antibiothérapie,.
+Dans sa forme chronique, elle se loge également dans les amygdales (on parle de tonsillite), obligeant parfois à en faire l'ablation chirurgicale (tonsillectomie).
 </t>
         </is>
       </c>
@@ -512,15 +524,17 @@
           <t>Sémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes communs incluent :
 fièvre
 mal de gorge
 amygdales gonflées généralement rouges, parfois cryptiques (présence de caséum à leur surface)
 ganglions lymphatiques gonflés dans le cou
-halitose inhabituelle[4]
-plus rarement des pétéchies sur le voile palatin (95% de spécificité aux infections à streptocoques du groupe A[5])
+halitose inhabituelle
+plus rarement des pétéchies sur le voile palatin (95% de spécificité aux infections à streptocoques du groupe A)
 Un mal de tête et des nausées ou vomissements peuvent également se produire.
 </t>
         </is>
@@ -550,13 +564,15 @@
           <t>Tests</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Afin d'éviter la prescription indue d'antibiotique, de nombreux organismes de la santé (OMS, HAS, etc) recommandent ou obligent à tester la présence de Streptococcus pyogenes.
 Il existe plusieurs méthodes de test :
-les tests antigéniques en kit : avantageusement rapides et faciles d'utilisation en cabinet médical, ces tests présentent une fiabilité et une sensibilité variables d'un fabricant à l'autre[6] (ex : Step A en France, Rapid Strep Test aux États-Unis, etc)
-la culture en laboratoire : méthode historique toujours en usage, bien que plus longue et plus coûteuse elle permet au besoin de réaliser un antibiogramme dans la foulée[7]
-la détection PCR : méthode la plus onéreuse, elle autorise une détection hautement spécifique (ex : gènes de virulence chez S. pyogenes[8], lever une ambiguïté diagnostique avec d'autres streptocoques[9], etc)</t>
+les tests antigéniques en kit : avantageusement rapides et faciles d'utilisation en cabinet médical, ces tests présentent une fiabilité et une sensibilité variables d'un fabricant à l'autre (ex : Step A en France, Rapid Strep Test aux États-Unis, etc)
+la culture en laboratoire : méthode historique toujours en usage, bien que plus longue et plus coûteuse elle permet au besoin de réaliser un antibiogramme dans la foulée
+la détection PCR : méthode la plus onéreuse, elle autorise une détection hautement spécifique (ex : gènes de virulence chez S. pyogenes, lever une ambiguïté diagnostique avec d'autres streptocoques, etc)</t>
         </is>
       </c>
     </row>
@@ -584,11 +600,48 @@
           <t>Complications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il existe deux types de complications : suppuratives et non suppuratives.
-Complications suppuratives
-Parmi les troubles retrouvés[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe deux types de complications : suppuratives et non suppuratives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pharyngite_streptococcique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pharyngite_streptococcique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Complications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Complications suppuratives</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Parmi les troubles retrouvés :
 amygdalite, aussi appelée tonsillite
 abcès péritonsillaire
 cellulite péritonsillaire
@@ -602,9 +655,43 @@
 endocardite infectieuse
 ostéomyélite
 abcès hépatiques
-abcès cérébraux
-Complications non suppuratives
-Parmi les troubles retrouvés[1] :
+abcès cérébraux</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pharyngite_streptococcique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pharyngite_streptococcique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Complications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Complications non suppuratives</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Parmi les troubles retrouvés :
 rhumatisme articulaire aigu
 glomérulonéphrite
 troubles auto-immuns
@@ -613,65 +700,69 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Pharyngite_streptococcique</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pharyngite_streptococcique</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Antibiothérapie per os[2] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Antibiothérapie per os : 
 Amoxicilline ou céphalosporine de 2e ou 3e générations
 Érythromycine ou azithromycine en cas d 'allergie aux bêta-lactamines (moins de 5% de souches invasives étaient résistantes à l'érythromycine en 2019)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Pharyngite_streptococcique</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pharyngite_streptococcique</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Vaccins</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'existe pour l'instant aucun vaccin contre Streptococcus pyogenes mais des recherches sont en cours[10],[11].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'existe pour l'instant aucun vaccin contre Streptococcus pyogenes mais des recherches sont en cours,.
 </t>
         </is>
       </c>
